--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il10-Il10rb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il10-Il10rb.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7511673333333332</v>
+        <v>1.208813</v>
       </c>
       <c r="H2">
-        <v>2.253502</v>
+        <v>3.626439</v>
       </c>
       <c r="I2">
-        <v>0.04296322402762928</v>
+        <v>0.06175614228936263</v>
       </c>
       <c r="J2">
-        <v>0.04296322402762928</v>
+        <v>0.06175614228936264</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.49243633333333</v>
+        <v>19.59940166666667</v>
       </c>
       <c r="N2">
-        <v>61.477309</v>
+        <v>58.798205</v>
       </c>
       <c r="O2">
-        <v>0.1704171761399068</v>
+        <v>0.1807871245579405</v>
       </c>
       <c r="P2">
-        <v>0.1704171761399068</v>
+        <v>0.1807871245579405</v>
       </c>
       <c r="Q2">
-        <v>15.39324875401311</v>
+        <v>23.69201152688833</v>
       </c>
       <c r="R2">
-        <v>138.539238786118</v>
+        <v>213.228103741995</v>
       </c>
       <c r="S2">
-        <v>0.007321671316654774</v>
+        <v>0.0111647153882849</v>
       </c>
       <c r="T2">
-        <v>0.007321671316654775</v>
+        <v>0.0111647153882849</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7511673333333332</v>
+        <v>1.208813</v>
       </c>
       <c r="H3">
-        <v>2.253502</v>
+        <v>3.626439</v>
       </c>
       <c r="I3">
-        <v>0.04296322402762928</v>
+        <v>0.06175614228936263</v>
       </c>
       <c r="J3">
-        <v>0.04296322402762928</v>
+        <v>0.06175614228936264</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>32.543191</v>
       </c>
       <c r="O3">
-        <v>0.09021082417256794</v>
+        <v>0.1000607063571047</v>
       </c>
       <c r="P3">
-        <v>0.09021082417256795</v>
+        <v>0.1000607063571047</v>
       </c>
       <c r="Q3">
-        <v>8.148460667209109</v>
+        <v>13.11287744742767</v>
       </c>
       <c r="R3">
-        <v>73.336146004882</v>
+        <v>118.015897026849</v>
       </c>
       <c r="S3">
-        <v>0.003875747848643111</v>
+        <v>0.006179363219363491</v>
       </c>
       <c r="T3">
-        <v>0.003875747848643112</v>
+        <v>0.006179363219363493</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7511673333333332</v>
+        <v>1.208813</v>
       </c>
       <c r="H4">
-        <v>2.253502</v>
+        <v>3.626439</v>
       </c>
       <c r="I4">
-        <v>0.04296322402762928</v>
+        <v>0.06175614228936263</v>
       </c>
       <c r="J4">
-        <v>0.04296322402762928</v>
+        <v>0.06175614228936264</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.830172</v>
+        <v>4.842319</v>
       </c>
       <c r="N4">
-        <v>14.490516</v>
+        <v>14.526957</v>
       </c>
       <c r="O4">
-        <v>0.04016819957962275</v>
+        <v>0.04466610476640988</v>
       </c>
       <c r="P4">
-        <v>0.04016819957962274</v>
+        <v>0.04466610476640988</v>
       </c>
       <c r="Q4">
-        <v>3.628267420781333</v>
+        <v>5.853458157347</v>
       </c>
       <c r="R4">
-        <v>32.65440678703199</v>
+        <v>52.68112341612301</v>
       </c>
       <c r="S4">
-        <v>0.001725755357325856</v>
+        <v>0.002758406321465987</v>
       </c>
       <c r="T4">
-        <v>0.001725755357325856</v>
+        <v>0.002758406321465987</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7511673333333332</v>
+        <v>1.208813</v>
       </c>
       <c r="H5">
-        <v>2.253502</v>
+        <v>3.626439</v>
       </c>
       <c r="I5">
-        <v>0.04296322402762928</v>
+        <v>0.06175614228936263</v>
       </c>
       <c r="J5">
-        <v>0.04296322402762928</v>
+        <v>0.06175614228936264</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.078317</v>
+        <v>73.12203966666667</v>
       </c>
       <c r="N5">
-        <v>252.234951</v>
+        <v>219.366119</v>
       </c>
       <c r="O5">
-        <v>0.6992038001079025</v>
+        <v>0.674486064318545</v>
       </c>
       <c r="P5">
-        <v>0.6992038001079025</v>
+        <v>0.674486064318545</v>
       </c>
       <c r="Q5">
-        <v>63.15688517204465</v>
+        <v>88.39087213558234</v>
       </c>
       <c r="R5">
-        <v>568.4119665484019</v>
+        <v>795.517849220241</v>
       </c>
       <c r="S5">
-        <v>0.03004004950500553</v>
+        <v>0.04165365736024826</v>
       </c>
       <c r="T5">
-        <v>0.03004004950500554</v>
+        <v>0.04165365736024827</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>7.223608</v>
       </c>
       <c r="I6">
-        <v>0.1377187545392794</v>
+        <v>0.1230138335404451</v>
       </c>
       <c r="J6">
-        <v>0.1377187545392794</v>
+        <v>0.1230138335404451</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.49243633333333</v>
+        <v>19.59940166666667</v>
       </c>
       <c r="N6">
-        <v>61.477309</v>
+        <v>58.798205</v>
       </c>
       <c r="O6">
-        <v>0.1704171761399068</v>
+        <v>0.1807871245579405</v>
       </c>
       <c r="P6">
-        <v>0.1704171761399068</v>
+        <v>0.1807871245579405</v>
       </c>
       <c r="Q6">
-        <v>49.34310901231912</v>
+        <v>47.19279822484889</v>
       </c>
       <c r="R6">
-        <v>444.087981110872</v>
+        <v>424.73518402364</v>
       </c>
       <c r="S6">
-        <v>0.02346964125008896</v>
+        <v>0.0222393172466262</v>
       </c>
       <c r="T6">
-        <v>0.02346964125008896</v>
+        <v>0.0222393172466262</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>7.223608</v>
       </c>
       <c r="I7">
-        <v>0.1377187545392794</v>
+        <v>0.1230138335404451</v>
       </c>
       <c r="J7">
-        <v>0.1377187545392794</v>
+        <v>0.1230138335404451</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>32.543191</v>
       </c>
       <c r="O7">
-        <v>0.09021082417256794</v>
+        <v>0.1000607063571047</v>
       </c>
       <c r="P7">
-        <v>0.09021082417256795</v>
+        <v>0.1000607063571047</v>
       </c>
       <c r="Q7">
         <v>26.11991720590311</v>
@@ -883,10 +883,10 @@
         <v>235.079254853128</v>
       </c>
       <c r="S7">
-        <v>0.01242372235100797</v>
+        <v>0.01230885107575224</v>
       </c>
       <c r="T7">
-        <v>0.01242372235100798</v>
+        <v>0.01230885107575224</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>7.223608</v>
       </c>
       <c r="I8">
-        <v>0.1377187545392794</v>
+        <v>0.1230138335404451</v>
       </c>
       <c r="J8">
-        <v>0.1377187545392794</v>
+        <v>0.1230138335404451</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.830172</v>
+        <v>4.842319</v>
       </c>
       <c r="N8">
-        <v>14.490516</v>
+        <v>14.526957</v>
       </c>
       <c r="O8">
-        <v>0.04016819957962275</v>
+        <v>0.04466610476640988</v>
       </c>
       <c r="P8">
-        <v>0.04016819957962274</v>
+        <v>0.04466610476640988</v>
       </c>
       <c r="Q8">
-        <v>11.63042303352534</v>
+        <v>11.65967142231733</v>
       </c>
       <c r="R8">
-        <v>104.673807301728</v>
+        <v>104.937042800856</v>
       </c>
       <c r="S8">
-        <v>0.00553191441819085</v>
+        <v>0.005494548776635227</v>
       </c>
       <c r="T8">
-        <v>0.005531914418190849</v>
+        <v>0.005494548776635227</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>7.223608</v>
       </c>
       <c r="I9">
-        <v>0.1377187545392794</v>
+        <v>0.1230138335404451</v>
       </c>
       <c r="J9">
-        <v>0.1377187545392794</v>
+        <v>0.1230138335404451</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>84.078317</v>
+        <v>73.12203966666667</v>
       </c>
       <c r="N9">
-        <v>252.234951</v>
+        <v>219.366119</v>
       </c>
       <c r="O9">
-        <v>0.6992038001079025</v>
+        <v>0.674486064318545</v>
       </c>
       <c r="P9">
-        <v>0.6992038001079025</v>
+        <v>0.674486064318545</v>
       </c>
       <c r="Q9">
-        <v>202.4496011025787</v>
+        <v>176.0683169041502</v>
       </c>
       <c r="R9">
-        <v>1822.046409923208</v>
+        <v>1584.614852137352</v>
       </c>
       <c r="S9">
-        <v>0.09629347651999158</v>
+        <v>0.08297111644143144</v>
       </c>
       <c r="T9">
-        <v>0.09629347651999158</v>
+        <v>0.08297111644143144</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9105576666666666</v>
+        <v>0.9221053333333332</v>
       </c>
       <c r="H10">
-        <v>2.731673</v>
+        <v>2.766316</v>
       </c>
       <c r="I10">
-        <v>0.05207959836256021</v>
+        <v>0.04710874897201923</v>
       </c>
       <c r="J10">
-        <v>0.05207959836256022</v>
+        <v>0.04710874897201923</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.49243633333333</v>
+        <v>19.59940166666667</v>
       </c>
       <c r="N10">
-        <v>61.477309</v>
+        <v>58.798205</v>
       </c>
       <c r="O10">
-        <v>0.1704171761399068</v>
+        <v>0.1807871245579405</v>
       </c>
       <c r="P10">
-        <v>0.1704171761399068</v>
+        <v>0.1807871245579405</v>
       </c>
       <c r="Q10">
-        <v>18.65954501199522</v>
+        <v>18.07271280697555</v>
       </c>
       <c r="R10">
-        <v>167.935905107957</v>
+        <v>162.65441526278</v>
       </c>
       <c r="S10">
-        <v>0.008875258087448023</v>
+        <v>0.00851665526817319</v>
       </c>
       <c r="T10">
-        <v>0.008875258087448025</v>
+        <v>0.008516655268173192</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9105576666666666</v>
+        <v>0.9221053333333332</v>
       </c>
       <c r="H11">
-        <v>2.731673</v>
+        <v>2.766316</v>
       </c>
       <c r="I11">
-        <v>0.05207959836256021</v>
+        <v>0.04710874897201923</v>
       </c>
       <c r="J11">
-        <v>0.05207959836256022</v>
+        <v>0.04710874897201923</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>32.543191</v>
       </c>
       <c r="O11">
-        <v>0.09021082417256794</v>
+        <v>0.1000607063571047</v>
       </c>
       <c r="P11">
-        <v>0.09021082417256795</v>
+        <v>0.1000607063571047</v>
       </c>
       <c r="Q11">
-        <v>9.877484020949222</v>
+        <v>10.00274999492844</v>
       </c>
       <c r="R11">
-        <v>88.897356188543</v>
+        <v>90.024749954356</v>
       </c>
       <c r="S11">
-        <v>0.004698143490862876</v>
+        <v>0.004713734697739775</v>
       </c>
       <c r="T11">
-        <v>0.004698143490862877</v>
+        <v>0.004713734697739776</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9105576666666666</v>
+        <v>0.9221053333333332</v>
       </c>
       <c r="H12">
-        <v>2.731673</v>
+        <v>2.766316</v>
       </c>
       <c r="I12">
-        <v>0.05207959836256021</v>
+        <v>0.04710874897201923</v>
       </c>
       <c r="J12">
-        <v>0.05207959836256022</v>
+        <v>0.04710874897201923</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.830172</v>
+        <v>4.842319</v>
       </c>
       <c r="N12">
-        <v>14.490516</v>
+        <v>14.526957</v>
       </c>
       <c r="O12">
-        <v>0.04016819957962275</v>
+        <v>0.04466610476640988</v>
       </c>
       <c r="P12">
-        <v>0.04016819957962274</v>
+        <v>0.04466610476640988</v>
       </c>
       <c r="Q12">
-        <v>4.398150145918667</v>
+        <v>4.465128175601333</v>
       </c>
       <c r="R12">
-        <v>39.583351313268</v>
+        <v>40.186153580412</v>
       </c>
       <c r="S12">
-        <v>0.002091943701053913</v>
+        <v>0.002104164316998715</v>
       </c>
       <c r="T12">
-        <v>0.002091943701053913</v>
+        <v>0.002104164316998715</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9105576666666666</v>
+        <v>0.9221053333333332</v>
       </c>
       <c r="H13">
-        <v>2.731673</v>
+        <v>2.766316</v>
       </c>
       <c r="I13">
-        <v>0.05207959836256021</v>
+        <v>0.04710874897201923</v>
       </c>
       <c r="J13">
-        <v>0.05207959836256022</v>
+        <v>0.04710874897201923</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>84.078317</v>
+        <v>73.12203966666667</v>
       </c>
       <c r="N13">
-        <v>252.234951</v>
+        <v>219.366119</v>
       </c>
       <c r="O13">
-        <v>0.6992038001079025</v>
+        <v>0.674486064318545</v>
       </c>
       <c r="P13">
-        <v>0.6992038001079025</v>
+        <v>0.674486064318545</v>
       </c>
       <c r="Q13">
-        <v>76.55815614478033</v>
+        <v>67.42622276084488</v>
       </c>
       <c r="R13">
-        <v>689.023405303023</v>
+        <v>606.8360048476039</v>
       </c>
       <c r="S13">
-        <v>0.0364142530831954</v>
+        <v>0.03177419468910755</v>
       </c>
       <c r="T13">
-        <v>0.0364142530831954</v>
+        <v>0.03177419468910755</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.41436666666667</v>
+        <v>15.03518433333333</v>
       </c>
       <c r="H14">
-        <v>40.2431</v>
+        <v>45.105553</v>
       </c>
       <c r="I14">
-        <v>0.767238423070531</v>
+        <v>0.768121275198173</v>
       </c>
       <c r="J14">
-        <v>0.7672384230705311</v>
+        <v>0.7681212751981731</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.49243633333333</v>
+        <v>19.59940166666667</v>
       </c>
       <c r="N14">
-        <v>61.477309</v>
+        <v>58.798205</v>
       </c>
       <c r="O14">
-        <v>0.1704171761399068</v>
+        <v>0.1807871245579405</v>
       </c>
       <c r="P14">
-        <v>0.1704171761399068</v>
+        <v>0.1807871245579405</v>
       </c>
       <c r="Q14">
-        <v>274.8930548686556</v>
+        <v>294.6806168813739</v>
       </c>
       <c r="R14">
-        <v>2474.0374938179</v>
+        <v>2652.125551932365</v>
       </c>
       <c r="S14">
-        <v>0.130750605485715</v>
+        <v>0.1388664366548562</v>
       </c>
       <c r="T14">
-        <v>0.130750605485715</v>
+        <v>0.1388664366548562</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.41436666666667</v>
+        <v>15.03518433333333</v>
       </c>
       <c r="H15">
-        <v>40.2431</v>
+        <v>45.105553</v>
       </c>
       <c r="I15">
-        <v>0.767238423070531</v>
+        <v>0.768121275198173</v>
       </c>
       <c r="J15">
-        <v>0.7672384230705311</v>
+        <v>0.7681212751981731</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>32.543191</v>
       </c>
       <c r="O15">
-        <v>0.09021082417256794</v>
+        <v>0.1000607063571047</v>
       </c>
       <c r="P15">
-        <v>0.09021082417256795</v>
+        <v>0.1000607063571047</v>
       </c>
       <c r="Q15">
-        <v>145.5154321924555</v>
+        <v>163.0976251599581</v>
       </c>
       <c r="R15">
-        <v>1309.6388897321</v>
+        <v>1467.878626439623</v>
       </c>
       <c r="S15">
-        <v>0.06921321048205396</v>
+        <v>0.07685875736424921</v>
       </c>
       <c r="T15">
-        <v>0.06921321048205399</v>
+        <v>0.07685875736424923</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.41436666666667</v>
+        <v>15.03518433333333</v>
       </c>
       <c r="H16">
-        <v>40.2431</v>
+        <v>45.105553</v>
       </c>
       <c r="I16">
-        <v>0.767238423070531</v>
+        <v>0.768121275198173</v>
       </c>
       <c r="J16">
-        <v>0.7672384230705311</v>
+        <v>0.7681212751981731</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.830172</v>
+        <v>4.842319</v>
       </c>
       <c r="N16">
-        <v>14.490516</v>
+        <v>14.526957</v>
       </c>
       <c r="O16">
-        <v>0.04016819957962275</v>
+        <v>0.04466610476640988</v>
       </c>
       <c r="P16">
-        <v>0.04016819957962274</v>
+        <v>0.04466610476640988</v>
       </c>
       <c r="Q16">
-        <v>64.79369827106666</v>
+        <v>72.80515876580233</v>
       </c>
       <c r="R16">
-        <v>583.1432844395999</v>
+        <v>655.2464288922209</v>
       </c>
       <c r="S16">
-        <v>0.03081858610305212</v>
+        <v>0.03430898535130995</v>
       </c>
       <c r="T16">
-        <v>0.03081858610305212</v>
+        <v>0.03430898535130995</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.41436666666667</v>
+        <v>15.03518433333333</v>
       </c>
       <c r="H17">
-        <v>40.2431</v>
+        <v>45.105553</v>
       </c>
       <c r="I17">
-        <v>0.767238423070531</v>
+        <v>0.768121275198173</v>
       </c>
       <c r="J17">
-        <v>0.7672384230705311</v>
+        <v>0.7681212751981731</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>84.078317</v>
+        <v>73.12203966666667</v>
       </c>
       <c r="N17">
-        <v>252.234951</v>
+        <v>219.366119</v>
       </c>
       <c r="O17">
-        <v>0.6992038001079025</v>
+        <v>0.674486064318545</v>
       </c>
       <c r="P17">
-        <v>0.6992038001079025</v>
+        <v>0.674486064318545</v>
       </c>
       <c r="Q17">
-        <v>1127.857372954233</v>
+        <v>1099.403345217645</v>
       </c>
       <c r="R17">
-        <v>10150.7163565881</v>
+        <v>9894.630106958806</v>
       </c>
       <c r="S17">
-        <v>0.5364560209997099</v>
+        <v>0.5180870958277577</v>
       </c>
       <c r="T17">
-        <v>0.53645602099971</v>
+        <v>0.5180870958277577</v>
       </c>
     </row>
   </sheetData>
